--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1783178.491619999</v>
+        <v>1883548.120233626</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>606553.2040797153</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5586690.750507717</v>
+        <v>6011618.320228514</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>197.7677705587322</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>381.1034429873367</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
@@ -671,13 +673,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.807830468939</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>83.71046610478308</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>63.91879806533819</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>331.721083724154</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1060,13 +1062,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>43.70143389869456</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>133.942529283065</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1114,7 +1116,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1133,19 +1135,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>66.12232352323784</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>59.18212589108334</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1339,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>217.0848558467259</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1373,22 +1375,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>217.4958257956222</v>
+        <v>203.7350166437391</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>152.5168019860615</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1546,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>122.9742767430581</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1622,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>233.3437899988012</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>202.7670440700873</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1780,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>208.2631588479963</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1828,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2014,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>27.07950026194634</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>123.2901323038658</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>46.225302710402</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2713,16 +2715,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>86.48613679462203</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345451</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225841</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>131.3131589043794</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3235,7 +3237,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>13.51446909089648</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3250,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3442,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>122.9742767430576</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>187.5234134555184</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3721,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>61.08641542222794</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>381.0586641226364</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3749,16 +3751,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>409.0867647799266</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022982</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3955,7 +3957,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>281.8658996315096</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3964,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>73.88161265650488</v>
+        <v>354.5522175742595</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4147,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170478</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4189,10 +4191,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>172.6623007436913</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2190.910269352854</v>
+        <v>1735.906148501163</v>
       </c>
       <c r="C2" t="n">
-        <v>1752.767796536277</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D2" t="n">
-        <v>1316.858011710722</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E2" t="n">
-        <v>883.0832668690169</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F2" t="n">
-        <v>455.2158372782247</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4355,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748444</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V2" t="n">
-        <v>2410.838523748444</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W2" t="n">
-        <v>2410.023473199882</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X2" t="n">
-        <v>2394.921413819597</v>
+        <v>2166.451438646013</v>
       </c>
       <c r="Y2" t="n">
-        <v>2390.675694159654</v>
+        <v>1758.165314945667</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I3" t="n">
-        <v>73.33088177303154</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="J3" t="n">
-        <v>397.8892067392439</v>
+        <v>1331.379389918832</v>
       </c>
       <c r="K3" t="n">
-        <v>397.8892067392439</v>
+        <v>1992.21944446061</v>
       </c>
       <c r="L3" t="n">
-        <v>397.8892067392439</v>
+        <v>1992.21944446061</v>
       </c>
       <c r="M3" t="n">
-        <v>397.8892067392439</v>
+        <v>1992.21944446061</v>
       </c>
       <c r="N3" t="n">
-        <v>397.8892067392439</v>
+        <v>1992.21944446061</v>
       </c>
       <c r="O3" t="n">
-        <v>397.8892067392439</v>
+        <v>1992.21944446061</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>783.1906115854911</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>783.1906115854911</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>617.3126187870138</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="E4" t="n">
-        <v>447.554615037751</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H4" t="n">
         <v>142.0611657539532</v>
@@ -4510,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2510.819457729424</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1699.551502431415</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1427.525098017707</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1182.133343351119</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>954.7136726652275</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1267.502422415565</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C5" t="n">
-        <v>829.3599495989887</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D5" t="n">
-        <v>797.4905688138373</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E5" t="n">
-        <v>767.7562280125366</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
         <v>53.40121652862856</v>
@@ -4565,28 +4567,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L5" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>1375.081325612185</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>2035.921380153963</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4598,19 +4600,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.221573682271</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1713.149771940701</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>1294.007308520012</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y5" t="n">
-        <v>1289.761588860069</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>73.33088177303154</v>
       </c>
       <c r="J6" t="n">
-        <v>79.46488968908616</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K6" t="n">
-        <v>79.46488968908616</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L6" t="n">
-        <v>79.46488968908616</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M6" t="n">
-        <v>277.7880908295411</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N6" t="n">
-        <v>938.6281453713194</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O6" t="n">
-        <v>1599.468199913098</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516127</v>
+        <v>1013.503637065321</v>
       </c>
       <c r="C7" t="n">
-        <v>568.9155211348376</v>
+        <v>840.941925548546</v>
       </c>
       <c r="D7" t="n">
-        <v>403.0375283363603</v>
+        <v>675.0639327500687</v>
       </c>
       <c r="E7" t="n">
-        <v>358.8946658124264</v>
+        <v>505.305929000806</v>
       </c>
       <c r="F7" t="n">
-        <v>358.8946658124264</v>
+        <v>328.5988749625621</v>
       </c>
       <c r="G7" t="n">
         <v>193.303390838254</v>
@@ -4762,13 +4764,13 @@
         <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1432.7419264702</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>1205.322255784308</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1415.517618276921</v>
+        <v>1819.558022317326</v>
       </c>
       <c r="C8" t="n">
-        <v>977.3751454603448</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>541.4653606347892</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
         <v>53.81800590148855</v>
@@ -4808,10 +4810,10 @@
         <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
         <v>632.7278666362198</v>
@@ -4844,10 +4846,10 @@
         <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>2250.103312462176</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>1841.817188761829</v>
+        <v>2245.857592802233</v>
       </c>
     </row>
     <row r="9">
@@ -4936,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>959.897665623735</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
         <v>959.897665623735</v>
@@ -4987,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2270.124004266387</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1991.691003519492</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1704.735495389923</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1432.709090976214</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1187.317336309627</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>959.897665623735</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>928.0436173150591</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>489.9011444984824</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>489.9011444984824</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>56.12639965677762</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>56.12639965677762</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677762</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677762</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>56.12639965677762</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>56.12639965677762</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>750.6905954094007</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M11" t="n">
-        <v>750.6905954094007</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="N11" t="n">
-        <v>1248.037526580578</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O11" t="n">
-        <v>1942.601722333201</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P11" t="n">
-        <v>2637.165918085824</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085824</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838881</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838881</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838881</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="V11" t="n">
-        <v>2586.62722950997</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W11" t="n">
-        <v>2181.771774921003</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X11" t="n">
-        <v>1762.629311500314</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y11" t="n">
-        <v>1354.343187799967</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J12" t="n">
-        <v>380.68472462299</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K12" t="n">
-        <v>1061.418244693367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.454444409171</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M12" t="n">
-        <v>1061.454444409171</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="N12" t="n">
-        <v>1061.454444409171</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="O12" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.571709137155</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1046.524611043334</v>
+        <v>1154.323924157457</v>
       </c>
       <c r="C13" t="n">
-        <v>873.9628995265592</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D13" t="n">
-        <v>708.0849067280819</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E13" t="n">
-        <v>538.3269029788192</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F13" t="n">
-        <v>361.6198489405754</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G13" t="n">
-        <v>196.0285739664031</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677762</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T13" t="n">
-        <v>2548.569568404973</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U13" t="n">
-        <v>2270.136567658079</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V13" t="n">
-        <v>1983.181059528509</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W13" t="n">
-        <v>1711.154655114801</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X13" t="n">
-        <v>1465.762900448213</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y13" t="n">
-        <v>1238.343229762321</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2193.218663108143</v>
+        <v>2466.979950121666</v>
       </c>
       <c r="C14" t="n">
-        <v>1755.076190291566</v>
+        <v>2028.83747730509</v>
       </c>
       <c r="D14" t="n">
-        <v>1319.166405466011</v>
+        <v>1592.927692479534</v>
       </c>
       <c r="E14" t="n">
-        <v>885.391660624306</v>
+        <v>1159.152947637829</v>
       </c>
       <c r="F14" t="n">
-        <v>457.5242310335137</v>
+        <v>731.2855180470369</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677762</v>
+        <v>329.8876866703008</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677762</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K14" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L14" t="n">
-        <v>750.6905954094007</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M14" t="n">
-        <v>1445.254791162024</v>
+        <v>1207.78565514394</v>
       </c>
       <c r="N14" t="n">
-        <v>2139.818986914646</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O14" t="n">
-        <v>2806.319982838881</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P14" t="n">
-        <v>2806.319982838881</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838881</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838881</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838881</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V14" t="n">
-        <v>2806.319982838881</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="W14" t="n">
-        <v>2806.319982838881</v>
+        <v>3720.70810772761</v>
       </c>
       <c r="X14" t="n">
-        <v>2601.50478680849</v>
+        <v>3301.565644306921</v>
       </c>
       <c r="Y14" t="n">
-        <v>2193.218663108143</v>
+        <v>2893.279520606574</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>82.19007281723522</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J15" t="n">
-        <v>82.19007281723522</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K15" t="n">
-        <v>82.19007281723522</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L15" t="n">
-        <v>82.19007281723522</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M15" t="n">
-        <v>776.7542685698583</v>
+        <v>743.208250979361</v>
       </c>
       <c r="N15" t="n">
-        <v>1061.454444409171</v>
+        <v>743.208250979361</v>
       </c>
       <c r="O15" t="n">
-        <v>1061.454444409171</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1046.524611043334</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C16" t="n">
-        <v>873.9628995265592</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D16" t="n">
-        <v>708.0849067280819</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E16" t="n">
-        <v>538.3269029788192</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F16" t="n">
-        <v>361.6198489405754</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G16" t="n">
-        <v>196.0285739664031</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.544640857574</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T16" t="n">
-        <v>2303.177813738386</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U16" t="n">
-        <v>2024.744812991491</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V16" t="n">
-        <v>1737.789304861922</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W16" t="n">
-        <v>1465.762900448213</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X16" t="n">
-        <v>1465.762900448213</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y16" t="n">
-        <v>1238.343229762321</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1068.769857140658</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>896.2081456238831</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>730.3301528254058</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E19" t="n">
-        <v>560.572149076143</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F19" t="n">
-        <v>383.8650950378992</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G19" t="n">
-        <v>218.2738200637269</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5704,19 +5706,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2292.381813755403</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>2005.426305625833</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1733.399901212125</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1488.008146545537</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1260.588475859645</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5750,52 +5752,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3575.440564248063</v>
+        <v>1077.292364523333</v>
       </c>
       <c r="C25" t="n">
-        <v>3402.878852731288</v>
+        <v>904.7306530065579</v>
       </c>
       <c r="D25" t="n">
-        <v>3237.000859932811</v>
+        <v>738.8526602080806</v>
       </c>
       <c r="E25" t="n">
-        <v>3067.242856183548</v>
+        <v>569.0946564588178</v>
       </c>
       <c r="F25" t="n">
-        <v>2890.535802145304</v>
+        <v>392.387602420574</v>
       </c>
       <c r="G25" t="n">
-        <v>2724.944527171132</v>
+        <v>226.7963274464017</v>
       </c>
       <c r="H25" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>5091.624192244353</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>4845.744745822809</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>4799.052520862807</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>4512.097012733238</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W25" t="n">
-        <v>4240.070608319529</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X25" t="n">
-        <v>3994.678853652942</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y25" t="n">
-        <v>3767.25918296705</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="26">
@@ -6230,7 +6232,7 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1431.851786213076</v>
       </c>
       <c r="M26" t="n">
         <v>2588.899621423627</v>
@@ -6361,22 +6363,22 @@
         <v>3184.458419759167</v>
       </c>
       <c r="C28" t="n">
-        <v>3097.098685623185</v>
+        <v>3011.896708242392</v>
       </c>
       <c r="D28" t="n">
-        <v>3097.098685623185</v>
+        <v>2846.018715443915</v>
       </c>
       <c r="E28" t="n">
-        <v>2927.340681873923</v>
+        <v>2676.260711694652</v>
       </c>
       <c r="F28" t="n">
-        <v>2750.633627835679</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G28" t="n">
-        <v>2585.042352861507</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H28" t="n">
-        <v>2585.042352861507</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I28" t="n">
         <v>2496.382403636182</v>
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>1431.851786213076</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6546,13 +6548,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O30" t="n">
         <v>1765.500601749588</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3365.117609755799</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>3192.555898239023</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>3026.677905440546</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E31" t="n">
-        <v>2856.919901691283</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F31" t="n">
-        <v>2680.21284765304</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G31" t="n">
-        <v>2514.621572678867</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>5113.042013538981</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>4867.162567117437</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>4588.729566370543</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>4301.774058240973</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>4029.747653827265</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>3784.355899160677</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>3556.936228474786</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2970399865835</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>426.8553649527958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1008.757289365886</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
         <v>1008.757289365886</v>
@@ -6883,25 +6885,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.502628878951</v>
+        <v>2683.851649999257</v>
       </c>
       <c r="T34" t="n">
-        <v>2451.623182457406</v>
+        <v>2437.972203577713</v>
       </c>
       <c r="U34" t="n">
-        <v>2173.190181710511</v>
+        <v>2159.539202830818</v>
       </c>
       <c r="V34" t="n">
-        <v>1886.234673580942</v>
+        <v>1872.583694701248</v>
       </c>
       <c r="W34" t="n">
-        <v>1614.208269167233</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="X34" t="n">
-        <v>1368.816514500646</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1141.396843814754</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6923,64 +6925,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1039.550377927473</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>2114.610344180332</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M35" t="n">
-        <v>3271.658179390883</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N35" t="n">
-        <v>4397.38916282733</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O35" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912875</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846702</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257735</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M36" t="n">
-        <v>1300.985674363279</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N36" t="n">
-        <v>1300.985674363279</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2594.704009018975</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2594.704009018975</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2316.271008272081</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>2029.315500142511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.289095728803</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.897341062215</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376323</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,49 +7177,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>557.2627364873769</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N38" t="n">
-        <v>3572.656769371182</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O38" t="n">
-        <v>4552.836435941488</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>4943.887948785925</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2139.983931829583</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C41" t="n">
-        <v>1755.076190291566</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D41" t="n">
-        <v>1319.166405466011</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E41" t="n">
-        <v>885.391660624306</v>
+        <v>796.5359975716556</v>
       </c>
       <c r="F41" t="n">
-        <v>457.5242310335137</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="G41" t="n">
-        <v>56.12639965677762</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677762</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677762</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>722.6273955810121</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>1417.191591333635</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="M41" t="n">
-        <v>2111.755787086258</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="N41" t="n">
-        <v>2806.319982838881</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O41" t="n">
-        <v>2806.319982838881</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P41" t="n">
-        <v>2806.319982838881</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838881</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.668109022718</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>2502.600881895757</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>2502.600881895757</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V41" t="n">
-        <v>2139.983931829583</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W41" t="n">
-        <v>2139.983931829583</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X41" t="n">
-        <v>2139.983931829583</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y41" t="n">
-        <v>2139.983931829583</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J42" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K42" t="n">
-        <v>736.8599197271549</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L42" t="n">
-        <v>1178.627222503511</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M42" t="n">
-        <v>1178.627222503511</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="N42" t="n">
-        <v>1178.627222503511</v>
+        <v>1254.175078389668</v>
       </c>
       <c r="O42" t="n">
-        <v>1178.627222503511</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="P42" t="n">
-        <v>1178.627222503511</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q42" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>995.2823859590335</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C43" t="n">
-        <v>822.7206744422584</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D43" t="n">
-        <v>656.8426816437811</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E43" t="n">
-        <v>487.0846778945184</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F43" t="n">
-        <v>310.3776238562746</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G43" t="n">
-        <v>144.7863488821023</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2513.544640857574</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2267.665194436029</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>1989.232193689134</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>1704.519163758317</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W43" t="n">
-        <v>1432.492759344608</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X43" t="n">
-        <v>1187.101004678021</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y43" t="n">
-        <v>1187.101004678021</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1719.669093034862</v>
+        <v>2188.014873871656</v>
       </c>
       <c r="C44" t="n">
-        <v>1281.526620218286</v>
+        <v>1749.872401055079</v>
       </c>
       <c r="D44" t="n">
-        <v>1281.526620218286</v>
+        <v>1313.962616229524</v>
       </c>
       <c r="E44" t="n">
-        <v>847.7518753765808</v>
+        <v>880.1878713878186</v>
       </c>
       <c r="F44" t="n">
-        <v>419.8844457857885</v>
+        <v>452.3204417970264</v>
       </c>
       <c r="G44" t="n">
-        <v>345.2565542135613</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677762</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>176.1286096224173</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K44" t="n">
-        <v>870.6928053750403</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L44" t="n">
-        <v>1565.257001127663</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="M44" t="n">
-        <v>1565.257001127663</v>
+        <v>2325.877900782264</v>
       </c>
       <c r="N44" t="n">
-        <v>1565.257001127663</v>
+        <v>3451.608884218711</v>
       </c>
       <c r="O44" t="n">
-        <v>1565.257001127663</v>
+        <v>4431.788550789018</v>
       </c>
       <c r="P44" t="n">
-        <v>2259.821196880286</v>
+        <v>4431.788550789018</v>
       </c>
       <c r="Q44" t="n">
-        <v>2806.319982838881</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T44" t="n">
-        <v>2806.319982838881</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U44" t="n">
-        <v>2547.097680155898</v>
+        <v>4209.215436132739</v>
       </c>
       <c r="V44" t="n">
-        <v>2547.097680155898</v>
+        <v>3846.598486066566</v>
       </c>
       <c r="W44" t="n">
-        <v>2547.097680155898</v>
+        <v>3441.743031477599</v>
       </c>
       <c r="X44" t="n">
-        <v>2127.955216735209</v>
+        <v>3022.60056805691</v>
       </c>
       <c r="Y44" t="n">
-        <v>1719.669093034862</v>
+        <v>2614.314444356563</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>56.12639965677762</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>380.68472462299</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1061.418244693367</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1135.184560268659</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C46" t="n">
-        <v>962.6228487518839</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D46" t="n">
-        <v>796.7448559534066</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E46" t="n">
-        <v>626.9868522041439</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F46" t="n">
-        <v>450.2797981659001</v>
+        <v>118.359174633707</v>
       </c>
       <c r="G46" t="n">
-        <v>284.6885231917278</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U46" t="n">
-        <v>2071.841008753834</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V46" t="n">
-        <v>2071.841008753834</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W46" t="n">
-        <v>1799.814604340125</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X46" t="n">
-        <v>1554.422849673538</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.003178987646</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.13097499434645</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M5" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="N5" t="n">
-        <v>667.5152066078567</v>
-      </c>
-      <c r="O5" t="n">
-        <v>640.5448952297625</v>
-      </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,19 +8303,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O6" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8456,13 +8458,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="N11" t="n">
-        <v>502.370637546644</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8766,13 +8768,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03656536949870315</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>655.9981329904115</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,22 +8932,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>701.5799957097202</v>
+        <v>1125.268238207158</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5799957097202</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>673.2333292163985</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9000,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9012,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>701.5799957097203</v>
+        <v>655.9981329904115</v>
       </c>
       <c r="N15" t="n">
-        <v>287.5759351912251</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9173,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,13 +9409,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>575.2670899541645</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9422,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>118.392906878933</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9711,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,10 +9880,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,16 +10196,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>507.1059092967429</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10598,10 +10600,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>110.0804674982792</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10668,19 +10670,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>825.7100220597506</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>19.94667551886812</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10838,13 +10840,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>395.0015281256938</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>673.2333292163985</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097203</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,28 +11141,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>389.5575801148032</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>121.2143535006462</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097203</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>88.44681858647436</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03656536949870315</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>141.4949547698895</v>
+        <v>155.2557639217726</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>18.31929241554585</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>120.4463752142712</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>52.89506301241465</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>212.1839947163951</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,10 +23703,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>35.15749310933299</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>111.4236523045829</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>84.63380825304883</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>15.21302026266341</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>229.4233680290237</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>84.34995760698528</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>160.7958207444068</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142708</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>58.5872736274178</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>144.1344859240868</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,19 +25362,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>34.67467827192567</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>81.78272691405297</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>52.70238396577452</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>14.50199051495775</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>2.220053416764245</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>323.5022404064638</v>
+        <v>42.8316354887092</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,16 +25918,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>102.9863699957344</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>348891.2474774584</v>
+        <v>494322.2622923111</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>348891.2474774584</v>
+        <v>494322.2622923109</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>527125.0177136285</v>
+        <v>527125.0177136286</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>527125.0177136285</v>
+        <v>527125.0177136286</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>348891.2474774584</v>
+        <v>494322.2622923109</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>348891.2474774584</v>
+        <v>494322.2622923109</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26316,25 @@
         <v>415514.1729150665</v>
       </c>
       <c r="C2" t="n">
+        <v>415514.1729150665</v>
+      </c>
+      <c r="D2" t="n">
         <v>415514.1729150667</v>
       </c>
-      <c r="D2" t="n">
-        <v>415514.1729150665</v>
-      </c>
       <c r="E2" t="n">
-        <v>270253.5357583608</v>
+        <v>382905.3900161257</v>
       </c>
       <c r="F2" t="n">
-        <v>270253.5357583609</v>
+        <v>382905.3900161257</v>
       </c>
       <c r="G2" t="n">
         <v>408314.6277064481</v>
       </c>
       <c r="H2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="I2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064479</v>
       </c>
       <c r="J2" t="n">
         <v>408314.627706448</v>
@@ -26347,13 +26349,13 @@
         <v>408314.627706448</v>
       </c>
       <c r="N2" t="n">
-        <v>408314.6277064479</v>
+        <v>408314.627706448</v>
       </c>
       <c r="O2" t="n">
-        <v>270253.5357583608</v>
+        <v>382905.3900161257</v>
       </c>
       <c r="P2" t="n">
-        <v>270253.5357583609</v>
+        <v>382905.3900161257</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045614</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461093</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340746</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,16 +26420,16 @@
         <v>122130.8532251352</v>
       </c>
       <c r="C4" t="n">
-        <v>122130.8532251353</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
         <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>9428.555608343535</v>
+        <v>13358.73276318392</v>
       </c>
       <c r="F4" t="n">
-        <v>9428.555608343535</v>
+        <v>13358.73276318392</v>
       </c>
       <c r="G4" t="n">
         <v>14245.20557049264</v>
@@ -26454,10 +26456,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>9428.555608343535</v>
+        <v>13358.73276318392</v>
       </c>
       <c r="P4" t="n">
-        <v>9428.555608343535</v>
+        <v>13358.73276318392</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915099</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915099</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915099</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915099</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4528.903455871259</v>
+        <v>-4528.903455871274</v>
       </c>
       <c r="C6" t="n">
-        <v>219170.7951281737</v>
+        <v>219170.7951281736</v>
       </c>
       <c r="D6" t="n">
-        <v>219170.7951281736</v>
+        <v>219170.7951281738</v>
       </c>
       <c r="E6" t="n">
-        <v>207997.9198104101</v>
+        <v>147615.628198865</v>
       </c>
       <c r="F6" t="n">
-        <v>218168.9164108663</v>
+        <v>298281.381770613</v>
       </c>
       <c r="G6" t="n">
-        <v>158291.7065840537</v>
+        <v>287261.3743575551</v>
       </c>
       <c r="H6" t="n">
-        <v>316351.1835301628</v>
+        <v>316351.1835301629</v>
       </c>
       <c r="I6" t="n">
-        <v>316351.1835301628</v>
+        <v>316351.1835301627</v>
       </c>
       <c r="J6" t="n">
         <v>141699.8348124567</v>
@@ -26552,16 +26554,16 @@
         <v>316351.1835301628</v>
       </c>
       <c r="M6" t="n">
-        <v>307862.1018268221</v>
+        <v>190600.095194472</v>
       </c>
       <c r="N6" t="n">
-        <v>316351.1835301627</v>
+        <v>316351.1835301628</v>
       </c>
       <c r="O6" t="n">
-        <v>218168.9164108662</v>
+        <v>298281.381770613</v>
       </c>
       <c r="P6" t="n">
-        <v>218168.9164108664</v>
+        <v>298281.381770613</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097203</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097203</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097203</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097203</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186331</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750251</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186331</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186331</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750251</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.2688042213265</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>52.65760510107418</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.09260206285819</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>84.34995760698703</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>369.8422500230727</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27670,19 +27672,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>69.08581631892298</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>124.3589898130756</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>29.99283294136558</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27834,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>367.6387245651731</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>370.2548715022044</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27916,7 +27918,7 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>26.33579611060335</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.13097499434645</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M5" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="N5" t="n">
-        <v>667.5152066078567</v>
-      </c>
-      <c r="O5" t="n">
-        <v>640.5448952297625</v>
-      </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O6" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35176,13 +35178,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="N11" t="n">
-        <v>502.370637546644</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327045</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03656536949870315</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>655.9981329904115</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35650,22 +35652,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>701.5799957097202</v>
+        <v>1125.268238207158</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5799957097202</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>673.2333292163985</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35732,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>701.5799957097203</v>
+        <v>655.9981329904115</v>
       </c>
       <c r="N15" t="n">
-        <v>287.5759351912251</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,7 +35810,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35895,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35907,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>575.2670899541645</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36142,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>118.392906878933</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,10 +36600,10 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>507.1059092967429</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37318,10 +37320,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>110.0804674982792</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>825.7100220597506</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>19.94667551886812</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37558,13 +37560,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>395.0015281256938</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>673.2333292163985</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097203</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>389.5575801148032</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,7 +37943,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>121.2143535006462</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097203</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>88.44681858647436</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327045</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03656536949870315</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38178,7 +38180,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1883548.120233626</v>
+        <v>1882942.032604729</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074005</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797153</v>
+        <v>606553.2040797154</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>381.1034429873367</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>30.96465002000427</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -822,10 +822,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>83.71046610478308</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -867,10 +867,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>152.5004364948334</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -898,25 +898,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>63.91879806533819</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>131.3089131981287</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1062,19 +1062,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>133.942529283065</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>182.0577076400746</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1116,7 +1116,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1135,19 +1135,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>66.12232352323784</v>
+        <v>347.203406430848</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>13.99728392830462</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1381,10 +1381,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>409.0867647799266</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1426,10 +1426,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>203.7350166437391</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>152.5168019860615</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>209.0649430937959</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1621,10 +1621,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>271.7368624962581</v>
       </c>
       <c r="H14" t="n">
-        <v>233.3437899988012</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1666,7 +1666,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1773,7 +1773,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>98.34385133095624</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3.139541480022588</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2241,13 +2241,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>116.0434079398613</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>123.2901323038658</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2535,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2724,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>14.14416275345451</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>139.9514671241869</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2964,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3009,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>142.4359347523201</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>13.51446909089648</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3252,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>187.5234134555184</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3520,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3751,10 +3751,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>409.0867647799266</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3799,10 +3799,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>347.9118370306624</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>119.93485014758</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480022982</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3991,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>354.5522175742595</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>63.02341241305043</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>46.45303019605547</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>24.34318456170478</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4197,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1735.906148501163</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C2" t="n">
-        <v>1350.953175786681</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D2" t="n">
         <v>915.0433909611256</v>
@@ -4330,22 +4330,22 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.567921177998</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P2" t="n">
         <v>1954.407975719776</v>
@@ -4357,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>2181.553498026298</v>
+        <v>2638.783402168797</v>
       </c>
       <c r="X2" t="n">
-        <v>2166.451438646013</v>
+        <v>2219.640938748108</v>
       </c>
       <c r="Y2" t="n">
-        <v>1758.165314945667</v>
+        <v>1811.354815047761</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1006.821064952619</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1331.379389918832</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1992.21944446061</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1992.21944446061</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1992.21944446061</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1992.21944446061</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1992.21944446061</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348371</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D4" t="n">
-        <v>568.9155211348371</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E4" t="n">
         <v>484.3594947663694</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1011.477214236518</v>
+        <v>710.0264917116014</v>
       </c>
       <c r="C5" t="n">
-        <v>946.912771746277</v>
+        <v>271.8840188950247</v>
       </c>
       <c r="D5" t="n">
-        <v>511.0029869207216</v>
+        <v>240.0146381098733</v>
       </c>
       <c r="E5" t="n">
-        <v>481.2686461194208</v>
+        <v>210.2802973085725</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>186.4532717581843</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4570,19 +4570,19 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7278666362198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>632.7278666362198</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P5" t="n">
         <v>1954.407975719776</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W5" t="n">
-        <v>2265.205371842461</v>
+        <v>1963.754649317545</v>
       </c>
       <c r="X5" t="n">
-        <v>1846.062908421772</v>
+        <v>1544.612185896856</v>
       </c>
       <c r="Y5" t="n">
-        <v>1437.776784721425</v>
+        <v>1136.326062196509</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>73.33088177303154</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1013.503637065321</v>
+        <v>962.7013733912472</v>
       </c>
       <c r="C7" t="n">
-        <v>840.941925548546</v>
+        <v>790.1396618744722</v>
       </c>
       <c r="D7" t="n">
-        <v>675.0639327500687</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E7" t="n">
-        <v>505.305929000806</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>328.5988749625621</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4752,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2464.746330752886</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2186.313330005992</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1899.357821876422</v>
       </c>
       <c r="W7" t="n">
-        <v>1678.133681136788</v>
+        <v>1627.331417462714</v>
       </c>
       <c r="X7" t="n">
-        <v>1432.7419264702</v>
+        <v>1381.939662796126</v>
       </c>
       <c r="Y7" t="n">
-        <v>1205.322255784308</v>
+        <v>1154.519992110234</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1819.558022317326</v>
+        <v>489.9592645846401</v>
       </c>
       <c r="C8" t="n">
-        <v>1752.767796536277</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.858011710722</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>883.0832668690169</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
         <v>53.81800590148855</v>
@@ -4804,52 +4804,52 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X8" t="n">
-        <v>2654.14371650258</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y8" t="n">
-        <v>2245.857592802233</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2634.504334502149</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2520.409306699863</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C11" t="n">
-        <v>2082.266833883286</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.357049057731</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E11" t="n">
-        <v>1212.582304216026</v>
+        <v>796.5359975716556</v>
       </c>
       <c r="F11" t="n">
-        <v>784.7148746252335</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="G11" t="n">
         <v>383.3170432484974</v>
@@ -5047,22 +5047,22 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1363.37507872995</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M11" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N11" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O11" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R11" t="n">
         <v>4688.504965942684</v>
@@ -5074,19 +5074,19 @@
         <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4384.78586499956</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>4178.992918894773</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>3774.137464305806</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>3354.995000885117</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y11" t="n">
-        <v>2946.70887718477</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L12" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M12" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>1107.571709137155</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
         <v>1757.009860797663</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1154.323924157457</v>
+        <v>837.4789812073</v>
       </c>
       <c r="C13" t="n">
-        <v>1000.26654841396</v>
+        <v>664.9172696905249</v>
       </c>
       <c r="D13" t="n">
-        <v>834.3885556154828</v>
+        <v>499.0392768920476</v>
       </c>
       <c r="E13" t="n">
-        <v>664.63055186622</v>
+        <v>499.0392768920476</v>
       </c>
       <c r="F13" t="n">
-        <v>487.9234978279762</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="G13" t="n">
         <v>322.3322228538038</v>
@@ -5226,25 +5226,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2710.429709221653</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2464.550262800109</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U13" t="n">
-        <v>2186.117262053214</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V13" t="n">
-        <v>1899.161753923644</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W13" t="n">
-        <v>1627.135349509936</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X13" t="n">
-        <v>1381.743594843348</v>
+        <v>1256.717270612179</v>
       </c>
       <c r="Y13" t="n">
-        <v>1154.323924157457</v>
+        <v>1029.297599926287</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2466.979950121666</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C14" t="n">
-        <v>2028.83747730509</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D14" t="n">
-        <v>1592.927692479534</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E14" t="n">
-        <v>1159.152947637829</v>
+        <v>796.5359975716556</v>
       </c>
       <c r="F14" t="n">
-        <v>731.2855180470369</v>
+        <v>368.6685679808633</v>
       </c>
       <c r="G14" t="n">
-        <v>329.8876866703008</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="H14" t="n">
         <v>94.18688869171368</v>
@@ -5278,16 +5278,16 @@
         <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>93.77009931885368</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>93.77009931885368</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>93.77009931885368</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M14" t="n">
-        <v>1207.78565514394</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N14" t="n">
         <v>2333.516638580387</v>
@@ -5314,16 +5314,16 @@
         <v>4125.563562316576</v>
       </c>
       <c r="V14" t="n">
-        <v>4125.563562316576</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W14" t="n">
-        <v>3720.70810772761</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X14" t="n">
-        <v>3301.565644306921</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y14" t="n">
-        <v>2893.279520606574</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>743.208250979361</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>743.208250979361</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1757.009860797663</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
         <v>1757.009860797663</v>
@@ -5421,16 +5421,16 @@
         <v>624.065601123217</v>
       </c>
       <c r="E16" t="n">
-        <v>454.3075973739543</v>
+        <v>524.7283775565945</v>
       </c>
       <c r="F16" t="n">
-        <v>277.6005433357104</v>
+        <v>348.0213235183507</v>
       </c>
       <c r="G16" t="n">
-        <v>112.0092683615381</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="H16" t="n">
-        <v>93.77009931885368</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I16" t="n">
         <v>93.77009931885368</v>
@@ -5515,34 +5515,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
         <v>4809.322912595856</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5664,10 +5664,10 @@
         <v>105.4320942910045</v>
       </c>
       <c r="G19" t="n">
-        <v>105.4320942910045</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>105.4320942910045</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5740,43 +5740,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1224.761663117513</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1224.761663117513</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1224.761663117513</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1224.761663117513</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5995,10 +5995,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6071,19 +6071,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1077.292364523333</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>904.7306530065579</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>738.8526602080806</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>569.0946564588178</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>392.387602420574</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>226.7963274464017</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2013.948813008508</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1741.922408594799</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1496.530653928212</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1269.11098324232</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6232,10 +6232,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1431.851786213076</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6308,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3184.458419759167</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>3011.896708242392</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>2846.018715443915</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>2676.260711694652</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>2661.973678610354</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>2496.382403636182</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>4932.38282354235</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>4686.503377120805</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>4408.070376373911</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>4121.114868244342</v>
+        <v>1872.583694701248</v>
       </c>
       <c r="W28" t="n">
-        <v>3849.088463830633</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="X28" t="n">
-        <v>3603.696709164046</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>3376.277038478154</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292483</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>105.4320942910045</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2683.851649999257</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2437.972203577713</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2159.539202830818</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1872.583694701248</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1600.55729028754</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6940,25 +6940,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.320806523639</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M35" t="n">
-        <v>2334.36864173419</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N35" t="n">
-        <v>3460.099625170637</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7016,28 +7016,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7131,16 +7131,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>2035.366634303136</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7177,49 +7177,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2627364873769</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1632.322702740236</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2104.363000055493</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>1666.220527238916</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>1230.31074241336</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>796.5359975716556</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>383.3170432484974</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
         <v>383.3170432484974</v>
@@ -7417,22 +7417,22 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>2164.36257382733</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>2164.36257382733</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>2164.36257382733</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
         <v>4688.504965942684</v>
@@ -7447,16 +7447,16 @@
         <v>4125.563562316576</v>
       </c>
       <c r="V41" t="n">
-        <v>3762.946612250403</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="W41" t="n">
-        <v>3358.091157661436</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X41" t="n">
-        <v>2938.948694240747</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2530.6625705404</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L42" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M42" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N42" t="n">
-        <v>1254.175078389668</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O42" t="n">
-        <v>1639.837082703323</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P42" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
         <v>1639.837082703323</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>781.8461154418378</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C43" t="n">
-        <v>609.2844039250627</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D43" t="n">
-        <v>443.4064111265855</v>
+        <v>668.7972806413104</v>
       </c>
       <c r="E43" t="n">
-        <v>273.6484073773227</v>
+        <v>499.0392768920476</v>
       </c>
       <c r="F43" t="n">
-        <v>96.94135333907892</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="G43" t="n">
-        <v>93.77009931885368</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885368</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I43" t="n">
         <v>93.77009931885368</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2529.770519225022</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T43" t="n">
-        <v>2283.891072803477</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U43" t="n">
-        <v>2005.458072056582</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V43" t="n">
-        <v>1718.502563927013</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W43" t="n">
-        <v>1446.476159513304</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X43" t="n">
-        <v>1201.084404846717</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y43" t="n">
-        <v>973.664734160825</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2188.014873871656</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C44" t="n">
-        <v>1749.872401055079</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D44" t="n">
-        <v>1313.962616229524</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E44" t="n">
-        <v>880.1878713878186</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F44" t="n">
-        <v>452.3204417970264</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G44" t="n">
-        <v>94.18688869171368</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H44" t="n">
-        <v>94.18688869171368</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I44" t="n">
         <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>93.77009931885368</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>93.77009931885368</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>1168.830065571713</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M44" t="n">
-        <v>2325.877900782264</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N44" t="n">
-        <v>3451.608884218711</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O44" t="n">
-        <v>4431.788550789018</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>4431.788550789018</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
         <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4688.504965942684</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>4468.437738815723</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.215436132739</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V44" t="n">
-        <v>3846.598486066566</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W44" t="n">
-        <v>3441.743031477599</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X44" t="n">
-        <v>3022.60056805691</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y44" t="n">
-        <v>2614.314444356563</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P45" t="n">
         <v>1099.098144071247</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.2639367364659</v>
+        <v>1053.872519855546</v>
       </c>
       <c r="C46" t="n">
-        <v>630.7022252196908</v>
+        <v>881.3108083387712</v>
       </c>
       <c r="D46" t="n">
-        <v>464.8242324212135</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E46" t="n">
-        <v>295.0662286719508</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F46" t="n">
-        <v>118.359174633707</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G46" t="n">
-        <v>93.77009931885368</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>93.77009931885368</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I46" t="n">
         <v>93.77009931885368</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2551.18834051965</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2305.308894098105</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>2026.87589335121</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V46" t="n">
-        <v>1739.920385221641</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W46" t="n">
-        <v>1467.893980807932</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="X46" t="n">
-        <v>1222.502226141345</v>
+        <v>1473.110809260425</v>
       </c>
       <c r="Y46" t="n">
-        <v>995.0825554554531</v>
+        <v>1245.691138574533</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8218,22 +8218,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="M5" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="N5" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.13097499434645</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,22 +8534,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8695,10 +8695,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M11" t="n">
-        <v>809.0782778761422</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>655.9981329904115</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M14" t="n">
-        <v>1125.268238207158</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>655.9981329904115</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>753.9218057523913</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9187,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9409,13 +9409,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>575.2670899541645</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9424,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,13 +9643,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9719,22 +9719,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9880,13 +9880,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9956,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>110.0804674982792</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10609,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>825.7100220597506</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,16 +10825,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>19.94667551886812</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10846,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11065,7 +11065,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>809.0782778761422</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,16 +11150,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>389.5575801148032</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>88.44681858647436</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,22 +11378,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>14.50199051495775</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23314,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>155.2557639217726</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>18.31929241554585</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>33.87289402612575</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>125.6469905667107</v>
       </c>
       <c r="H14" t="n">
-        <v>52.89506301241465</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>69.71657238081387</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>84.63380825304883</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>52.01701577190883</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>15.21302026266341</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>160.7958207444068</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>144.1344859240869</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>141.6500182959537</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>144.1344859240868</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>81.78272691405297</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>14.50199051495775</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25687,10 +25687,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>11.07894353484932</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>44.28436272291249</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444076</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>42.8316354887092</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>154.8431424426413</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>117.7661826744371</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>494322.2622923111</v>
+        <v>494322.2622923109</v>
       </c>
     </row>
     <row r="6">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>527125.0177136286</v>
+        <v>527125.0177136285</v>
       </c>
     </row>
     <row r="14">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415514.1729150665</v>
+        <v>415514.1729150667</v>
       </c>
       <c r="C2" t="n">
         <v>415514.1729150665</v>
       </c>
       <c r="D2" t="n">
-        <v>415514.1729150667</v>
+        <v>415514.1729150665</v>
       </c>
       <c r="E2" t="n">
         <v>382905.3900161257</v>
@@ -26328,13 +26328,13 @@
         <v>382905.3900161257</v>
       </c>
       <c r="G2" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.627706448</v>
       </c>
       <c r="H2" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.627706448</v>
       </c>
       <c r="I2" t="n">
-        <v>408314.6277064479</v>
+        <v>408314.627706448</v>
       </c>
       <c r="J2" t="n">
         <v>408314.627706448</v>
@@ -26349,7 +26349,7 @@
         <v>408314.627706448</v>
       </c>
       <c r="N2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="O2" t="n">
         <v>382905.3900161257</v>
@@ -26423,7 +26423,7 @@
         <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
-        <v>122130.8532251352</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="E4" t="n">
         <v>13358.73276318392</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4528.903455871274</v>
+        <v>-4528.903455871055</v>
       </c>
       <c r="C6" t="n">
         <v>219170.7951281736</v>
       </c>
       <c r="D6" t="n">
-        <v>219170.7951281738</v>
+        <v>219170.7951281736</v>
       </c>
       <c r="E6" t="n">
-        <v>147615.628198865</v>
+        <v>147510.4385766104</v>
       </c>
       <c r="F6" t="n">
-        <v>298281.381770613</v>
+        <v>298176.1921483583</v>
       </c>
       <c r="G6" t="n">
-        <v>287261.3743575551</v>
+        <v>287238.1500181724</v>
       </c>
       <c r="H6" t="n">
-        <v>316351.1835301629</v>
+        <v>316327.9591907802</v>
       </c>
       <c r="I6" t="n">
-        <v>316351.1835301627</v>
+        <v>316327.9591907801</v>
       </c>
       <c r="J6" t="n">
-        <v>141699.8348124567</v>
+        <v>141676.610473074</v>
       </c>
       <c r="K6" t="n">
-        <v>316351.1835301628</v>
+        <v>316327.9591907802</v>
       </c>
       <c r="L6" t="n">
-        <v>316351.1835301628</v>
+        <v>316327.9591907801</v>
       </c>
       <c r="M6" t="n">
-        <v>190600.095194472</v>
+        <v>190576.8708550894</v>
       </c>
       <c r="N6" t="n">
-        <v>316351.1835301628</v>
+        <v>316327.9591907802</v>
       </c>
       <c r="O6" t="n">
-        <v>298281.381770613</v>
+        <v>298176.1921483584</v>
       </c>
       <c r="P6" t="n">
-        <v>298281.381770613</v>
+        <v>298176.1921483584</v>
       </c>
     </row>
   </sheetData>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>52.65760510107418</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27441,10 +27441,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>369.8422500230727</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27542,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.34995760698703</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>90.92021546249589</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>369.8422500230727</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>266.07493986484</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>29.99283294136558</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>61.36294431725472</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>367.6387245651731</v>
+        <v>86.5576416575629</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>229.4233680290247</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34938,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="M5" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="N5" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.13097499434645</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35196,7 +35196,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35415,10 +35415,10 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M11" t="n">
-        <v>809.0782778761422</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>655.9981329904115</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M14" t="n">
-        <v>1125.268238207158</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>655.9981329904115</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35895,7 +35895,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>753.9218057523913</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35907,7 +35907,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>575.2670899541645</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36144,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36363,13 +36363,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36439,22 +36439,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36600,13 +36600,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36676,22 +36676,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36767,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>110.0804674982792</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37329,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>825.7100220597506</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>19.94667551886812</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37566,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37785,7 +37785,7 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>809.0782778761422</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37870,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>389.5575801148032</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>88.44681858647436</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
